--- a/demo.xlsx
+++ b/demo.xlsx
@@ -435,7 +435,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41.89</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11/23/21</t>
+          <t>11/24/21</t>
         </is>
       </c>
     </row>
